--- a/biology/Zoologie/Acalyptus/Acalyptus.xlsx
+++ b/biology/Zoologie/Acalyptus/Acalyptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acalyptus est un genre d'insectes de l'ordre des coléoptères[2] et de la famille des Curculionidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acalyptus est un genre d'insectes de l'ordre des coléoptères et de la famille des Curculionidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 août 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 août 2021) :
 Acalyptus alpinus Kuhnt, 1913
 Acalyptus araliae Gemminger &amp; Harold, 1871
 Acalyptus carpini (Fabricius, J.C., 1792)
@@ -523,7 +537,7 @@
 Acalyptus rufipennis Gyllenhal, 1835
 Acalyptus sabulicolor Motschulsky, 1866
 Acalyptus sericeus Gyllenhal, 1835
-Selon ITIS      (30 août 2014)[4] :
+Selon ITIS      (30 août 2014) :
 Acalyptus carpini (Herbst, 1795)</t>
         </is>
       </c>
